--- a/Data/Test SWV/Excel Files/Pbp1.xlsx
+++ b/Data/Test SWV/Excel Files/Pbp1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A148"/>
+  <dimension ref="A1:D148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Apr. 4, 2023   18:29:48</t>
+          <t>Apr. 4</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023   18:29:48</t>
         </is>
       </c>
     </row>
@@ -543,882 +548,2772 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Potential/V, Diff(i/A), For(i/A), Rev(i/A)</t>
+          <t>Potential/V</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Diff(i/A)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> For(i/A)</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rev(i/A)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>-0.004, -1.377e-4, -7.106e-5, 6.663e-5</t>
+          <t>-0.004</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.377e-4</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.106e-5</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.663e-5</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>-0.008, -1.395e-4, -7.404e-5, 6.542e-5</t>
+          <t>-0.008</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.395e-4</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.404e-5</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.542e-5</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>-0.012, -1.396e-4, -7.477e-5, 6.480e-5</t>
+          <t>-0.012</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.396e-4</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.477e-5</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.480e-5</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>-0.016, -1.397e-4, -7.524e-5, 6.441e-5</t>
+          <t>-0.016</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.397e-4</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.524e-5</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.441e-5</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>-0.020, -1.397e-4, -7.563e-5, 6.407e-5</t>
+          <t>-0.020</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.397e-4</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.563e-5</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.407e-5</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>-0.024, -1.397e-4, -7.593e-5, 6.380e-5</t>
+          <t>-0.024</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.397e-4</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.593e-5</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.380e-5</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>-0.028, -1.398e-4, -7.620e-5, 6.356e-5</t>
+          <t>-0.028</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.398e-4</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.620e-5</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.356e-5</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>-0.032, -1.399e-4, -7.646e-5, 6.343e-5</t>
+          <t>-0.032</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.399e-4</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.646e-5</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.343e-5</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>-0.036, -1.400e-4, -7.670e-5, 6.329e-5</t>
+          <t>-0.036</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.400e-4</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.670e-5</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.329e-5</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>-0.040, -1.401e-4, -7.691e-5, 6.314e-5</t>
+          <t>-0.040</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.401e-4</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.691e-5</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.314e-5</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>-0.044, -1.402e-4, -7.716e-5, 6.301e-5</t>
+          <t>-0.044</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.402e-4</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.716e-5</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.301e-5</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>-0.048, -1.403e-4, -7.738e-5, 6.292e-5</t>
+          <t>-0.048</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.403e-4</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.738e-5</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.292e-5</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>-0.052, -1.405e-4, -7.758e-5, 6.288e-5</t>
+          <t>-0.052</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.405e-4</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.758e-5</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.288e-5</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>-0.056, -1.406e-4, -7.780e-5, 6.281e-5</t>
+          <t>-0.056</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.406e-4</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.780e-5</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.281e-5</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>-0.060, -1.409e-4, -7.805e-5, 6.280e-5</t>
+          <t>-0.060</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.409e-4</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.805e-5</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.280e-5</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>-0.064, -1.410e-4, -7.829e-5, 6.276e-5</t>
+          <t>-0.064</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.410e-4</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.829e-5</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.276e-5</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>-0.068, -1.413e-4, -7.851e-5, 6.276e-5</t>
+          <t>-0.068</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.413e-4</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.851e-5</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.276e-5</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>-0.072, -1.415e-4, -7.875e-5, 6.274e-5</t>
+          <t>-0.072</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.415e-4</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.875e-5</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.274e-5</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>-0.076, -1.418e-4, -7.902e-5, 6.278e-5</t>
+          <t>-0.076</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.418e-4</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.902e-5</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.278e-5</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>-0.080, -1.420e-4, -7.930e-5, 6.274e-5</t>
+          <t>-0.080</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.420e-4</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.930e-5</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.274e-5</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>-0.084, -1.423e-4, -7.954e-5, 6.281e-5</t>
+          <t>-0.084</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.423e-4</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.954e-5</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.281e-5</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-0.088, -1.426e-4, -7.980e-5, 6.281e-5</t>
+          <t>-0.088</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.426e-4</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.980e-5</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.281e-5</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-0.092, -1.430e-4, -8.012e-5, 6.284e-5</t>
+          <t>-0.092</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.430e-4</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.012e-5</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.284e-5</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-0.096, -1.433e-4, -8.044e-5, 6.286e-5</t>
+          <t>-0.096</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.433e-4</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.044e-5</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.286e-5</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>-0.100, -1.436e-4, -8.073e-5, 6.292e-5</t>
+          <t>-0.100</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.436e-4</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.073e-5</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.292e-5</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>-0.104, -1.440e-4, -8.102e-5, 6.295e-5</t>
+          <t>-0.104</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.440e-4</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.102e-5</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.295e-5</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>-0.108, -1.443e-4, -8.135e-5, 6.300e-5</t>
+          <t>-0.108</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.443e-4</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.135e-5</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.300e-5</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>-0.112, -1.447e-4, -8.167e-5, 6.303e-5</t>
+          <t>-0.112</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.447e-4</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.167e-5</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.303e-5</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>-0.116, -1.451e-4, -8.201e-5, 6.311e-5</t>
+          <t>-0.116</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.451e-4</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.201e-5</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.311e-5</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>-0.120, -1.455e-4, -8.235e-5, 6.316e-5</t>
+          <t>-0.120</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.455e-4</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.235e-5</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.316e-5</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>-0.124, -1.459e-4, -8.268e-5, 6.321e-5</t>
+          <t>-0.124</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.459e-4</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.268e-5</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.321e-5</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>-0.128, -1.463e-4, -8.302e-5, 6.324e-5</t>
+          <t>-0.128</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.463e-4</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.302e-5</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.324e-5</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>-0.132, -1.467e-4, -8.338e-5, 6.334e-5</t>
+          <t>-0.132</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.467e-4</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.338e-5</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.334e-5</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>-0.136, -1.471e-4, -8.370e-5, 6.342e-5</t>
+          <t>-0.136</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.471e-4</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.370e-5</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.342e-5</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>-0.140, -1.475e-4, -8.401e-5, 6.348e-5</t>
+          <t>-0.140</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.475e-4</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.401e-5</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.348e-5</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>-0.144, -1.479e-4, -8.437e-5, 6.353e-5</t>
+          <t>-0.144</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.479e-4</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.437e-5</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.353e-5</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>-0.148, -1.483e-4, -8.468e-5, 6.364e-5</t>
+          <t>-0.148</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.483e-4</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.468e-5</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.364e-5</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>-0.152, -1.487e-4, -8.499e-5, 6.374e-5</t>
+          <t>-0.152</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.487e-4</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.499e-5</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.374e-5</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>-0.156, -1.491e-4, -8.532e-5, 6.382e-5</t>
+          <t>-0.156</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.491e-4</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.532e-5</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.382e-5</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>-0.160, -1.496e-4, -8.565e-5, 6.397e-5</t>
+          <t>-0.160</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.496e-4</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.565e-5</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.397e-5</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>-0.164, -1.501e-4, -8.602e-5, 6.405e-5</t>
+          <t>-0.164</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.501e-4</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.602e-5</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.405e-5</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>-0.168, -1.505e-4, -8.635e-5, 6.420e-5</t>
+          <t>-0.168</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.505e-4</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.635e-5</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.420e-5</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>-0.172, -1.510e-4, -8.671e-5, 6.429e-5</t>
+          <t>-0.172</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.510e-4</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.671e-5</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.429e-5</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>-0.176, -1.515e-4, -8.708e-5, 6.447e-5</t>
+          <t>-0.176</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.515e-4</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.708e-5</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.447e-5</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>-0.180, -1.520e-4, -8.748e-5, 6.453e-5</t>
+          <t>-0.180</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.520e-4</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.748e-5</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.453e-5</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>-0.184, -1.525e-4, -8.780e-5, 6.471e-5</t>
+          <t>-0.184</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.525e-4</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.780e-5</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.471e-5</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>-0.188, -1.530e-4, -8.817e-5, 6.482e-5</t>
+          <t>-0.188</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.530e-4</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.817e-5</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.482e-5</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>-0.192, -1.534e-4, -8.850e-5, 6.495e-5</t>
+          <t>-0.192</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.534e-4</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.850e-5</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.495e-5</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>-0.196, -1.539e-4, -8.890e-5, 6.502e-5</t>
+          <t>-0.196</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.539e-4</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.890e-5</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.502e-5</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>-0.200, -1.543e-4, -8.917e-5, 6.517e-5</t>
+          <t>-0.200</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.543e-4</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.917e-5</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.517e-5</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>-0.204, -1.547e-4, -8.947e-5, 6.524e-5</t>
+          <t>-0.204</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.547e-4</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.947e-5</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.524e-5</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>-0.208, -1.551e-4, -8.973e-5, 6.534e-5</t>
+          <t>-0.208</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.551e-4</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.973e-5</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.534e-5</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>-0.212, -1.554e-4, -8.998e-5, 6.539e-5</t>
+          <t>-0.212</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.554e-4</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.998e-5</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.539e-5</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>-0.216, -1.557e-4, -9.020e-5, 6.548e-5</t>
+          <t>-0.216</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.557e-4</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.020e-5</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.548e-5</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>-0.220, -1.559e-4, -9.042e-5, 6.550e-5</t>
+          <t>-0.220</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.559e-4</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.042e-5</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.550e-5</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>-0.224, -1.561e-4, -9.053e-5, 6.553e-5</t>
+          <t>-0.224</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.561e-4</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.053e-5</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.553e-5</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>-0.228, -1.562e-4, -9.070e-5, 6.550e-5</t>
+          <t>-0.228</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.562e-4</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.070e-5</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.550e-5</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>-0.232, -1.563e-4, -9.081e-5, 6.553e-5</t>
+          <t>-0.232</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.563e-4</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.081e-5</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.553e-5</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>-0.236, -1.564e-4, -9.090e-5, 6.552e-5</t>
+          <t>-0.236</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.564e-4</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.090e-5</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.552e-5</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>-0.240, -1.564e-4, -9.093e-5, 6.545e-5</t>
+          <t>-0.240</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.564e-4</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.093e-5</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.545e-5</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>-0.244, -1.564e-4, -9.101e-5, 6.537e-5</t>
+          <t>-0.244</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.564e-4</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.101e-5</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.537e-5</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>-0.248, -1.563e-4, -9.103e-5, 6.532e-5</t>
+          <t>-0.248</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.563e-4</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.103e-5</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.532e-5</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>-0.252, -1.563e-4, -9.104e-5, 6.526e-5</t>
+          <t>-0.252</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.563e-4</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.104e-5</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.526e-5</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>-0.256, -1.562e-4, -9.102e-5, 6.514e-5</t>
+          <t>-0.256</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.562e-4</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.102e-5</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.514e-5</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>-0.260, -1.561e-4, -9.106e-5, 6.507e-5</t>
+          <t>-0.260</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.561e-4</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.106e-5</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.507e-5</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>-0.264, -1.560e-4, -9.104e-5, 6.494e-5</t>
+          <t>-0.264</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.560e-4</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.104e-5</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.494e-5</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>-0.268, -1.559e-4, -9.100e-5, 6.485e-5</t>
+          <t>-0.268</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.559e-4</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.100e-5</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.485e-5</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>-0.272, -1.557e-4, -9.098e-5, 6.473e-5</t>
+          <t>-0.272</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.557e-4</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.098e-5</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.473e-5</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>-0.276, -1.556e-4, -9.097e-5, 6.464e-5</t>
+          <t>-0.276</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.556e-4</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.097e-5</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.464e-5</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>-0.280, -1.554e-4, -9.097e-5, 6.447e-5</t>
+          <t>-0.280</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.554e-4</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.097e-5</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.447e-5</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>-0.284, -1.553e-4, -9.091e-5, 6.441e-5</t>
+          <t>-0.284</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.553e-4</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.091e-5</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.441e-5</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>-0.288, -1.552e-4, -9.088e-5, 6.429e-5</t>
+          <t>-0.288</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.552e-4</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.088e-5</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.429e-5</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>-0.292, -1.551e-4, -9.089e-5, 6.417e-5</t>
+          <t>-0.292</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.551e-4</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.089e-5</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.417e-5</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>-0.296, -1.550e-4, -9.093e-5, 6.405e-5</t>
+          <t>-0.296</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.550e-4</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.093e-5</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.405e-5</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>-0.300, -1.549e-4, -9.087e-5, 6.399e-5</t>
+          <t>-0.300</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.549e-4</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.087e-5</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.399e-5</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>-0.304, -1.548e-4, -9.087e-5, 6.388e-5</t>
+          <t>-0.304</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.548e-4</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.087e-5</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.388e-5</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>-0.308, -1.547e-4, -9.087e-5, 6.379e-5</t>
+          <t>-0.308</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.547e-4</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.087e-5</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.379e-5</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>-0.312, -1.546e-4, -9.088e-5, 6.370e-5</t>
+          <t>-0.312</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.546e-4</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.088e-5</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.370e-5</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>-0.316, -1.546e-4, -9.091e-5, 6.365e-5</t>
+          <t>-0.316</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.546e-4</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.091e-5</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.365e-5</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>-0.320, -1.545e-4, -9.093e-5, 6.356e-5</t>
+          <t>-0.320</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.545e-4</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.093e-5</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.356e-5</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>-0.324, -1.545e-4, -9.096e-5, 6.349e-5</t>
+          <t>-0.324</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.545e-4</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.096e-5</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.349e-5</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>-0.328, -1.544e-4, -9.099e-5, 6.340e-5</t>
+          <t>-0.328</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.544e-4</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.099e-5</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.340e-5</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>-0.332, -1.544e-4, -9.104e-5, 6.338e-5</t>
+          <t>-0.332</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.544e-4</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.104e-5</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.338e-5</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>-0.336, -1.544e-4, -9.109e-5, 6.335e-5</t>
+          <t>-0.336</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.544e-4</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.109e-5</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.335e-5</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>-0.340, -1.544e-4, -9.112e-5, 6.328e-5</t>
+          <t>-0.340</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.544e-4</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.112e-5</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.328e-5</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>-0.344, -1.544e-4, -9.120e-5, 6.320e-5</t>
+          <t>-0.344</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.544e-4</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.120e-5</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.320e-5</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>-0.348, -1.544e-4, -9.126e-5, 6.317e-5</t>
+          <t>-0.348</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.544e-4</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.126e-5</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.317e-5</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>-0.352, -1.545e-4, -9.131e-5, 6.317e-5</t>
+          <t>-0.352</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.545e-4</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.131e-5</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.317e-5</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>-0.356, -1.544e-4, -9.138e-5, 6.307e-5</t>
+          <t>-0.356</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.544e-4</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.138e-5</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.307e-5</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>-0.360, -1.546e-4, -9.148e-5, 6.308e-5</t>
+          <t>-0.360</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.546e-4</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.148e-5</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.308e-5</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>-0.364, -1.546e-4, -9.156e-5, 6.301e-5</t>
+          <t>-0.364</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.546e-4</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.156e-5</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.301e-5</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>-0.368, -1.546e-4, -9.162e-5, 6.300e-5</t>
+          <t>-0.368</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.546e-4</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.162e-5</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.300e-5</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>-0.372, -1.547e-4, -9.171e-5, 6.294e-5</t>
+          <t>-0.372</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.547e-4</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.171e-5</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.294e-5</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>-0.376, -1.548e-4, -9.183e-5, 6.295e-5</t>
+          <t>-0.376</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.548e-4</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.183e-5</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.295e-5</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>-0.380, -1.548e-4, -9.196e-5, 6.284e-5</t>
+          <t>-0.380</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.548e-4</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.196e-5</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.284e-5</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>-0.384, -1.549e-4, -9.199e-5, 6.286e-5</t>
+          <t>-0.384</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.549e-4</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.199e-5</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.286e-5</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>-0.388, -1.549e-4, -9.212e-5, 6.281e-5</t>
+          <t>-0.388</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.549e-4</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.212e-5</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.281e-5</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>-0.392, -1.550e-4, -9.223e-5, 6.278e-5</t>
+          <t>-0.392</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.550e-4</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.223e-5</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.278e-5</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>-0.396, -1.551e-4, -9.239e-5, 6.271e-5</t>
+          <t>-0.396</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.551e-4</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.239e-5</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.271e-5</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>-0.400, -1.552e-4, -9.245e-5, 6.271e-5</t>
+          <t>-0.400</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.552e-4</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.245e-5</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.271e-5</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>-0.404, -1.553e-4, -9.258e-5, 6.267e-5</t>
+          <t>-0.404</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.553e-4</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.258e-5</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.267e-5</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>-0.408, -1.553e-4, -9.270e-5, 6.262e-5</t>
+          <t>-0.408</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.553e-4</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.270e-5</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.262e-5</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>-0.412, -1.554e-4, -9.285e-5, 6.255e-5</t>
+          <t>-0.412</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.554e-4</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.285e-5</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.255e-5</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>-0.416, -1.555e-4, -9.297e-5, 6.255e-5</t>
+          <t>-0.416</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.555e-4</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.297e-5</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.255e-5</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>-0.420, -1.556e-4, -9.315e-5, 6.249e-5</t>
+          <t>-0.420</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.556e-4</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.315e-5</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.249e-5</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>-0.424, -1.557e-4, -9.327e-5, 6.243e-5</t>
+          <t>-0.424</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.557e-4</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.327e-5</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.243e-5</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>-0.428, -1.558e-4, -9.344e-5, 6.235e-5</t>
+          <t>-0.428</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.558e-4</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.344e-5</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.235e-5</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>-0.432, -1.559e-4, -9.361e-5, 6.234e-5</t>
+          <t>-0.432</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.559e-4</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.361e-5</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.234e-5</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>-0.436, -1.561e-4, -9.377e-5, 6.229e-5</t>
+          <t>-0.436</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.561e-4</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.377e-5</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.229e-5</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>-0.440, -1.561e-4, -9.392e-5, 6.222e-5</t>
+          <t>-0.440</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.561e-4</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.392e-5</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.222e-5</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>-0.444, -1.563e-4, -9.416e-5, 6.212e-5</t>
+          <t>-0.444</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.563e-4</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.416e-5</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.212e-5</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>-0.448, -1.564e-4, -9.432e-5, 6.208e-5</t>
+          <t>-0.448</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.564e-4</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.432e-5</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.208e-5</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>-0.452, -1.566e-4, -9.452e-5, 6.204e-5</t>
+          <t>-0.452</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.566e-4</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.452e-5</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.204e-5</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>-0.456, -1.566e-4, -9.471e-5, 6.191e-5</t>
+          <t>-0.456</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.566e-4</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.471e-5</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.191e-5</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>-0.460, -1.568e-4, -9.493e-5, 6.188e-5</t>
+          <t>-0.460</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.568e-4</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.493e-5</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.188e-5</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>-0.464, -1.569e-4, -9.517e-5, 6.176e-5</t>
+          <t>-0.464</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.569e-4</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.517e-5</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.176e-5</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>-0.468, -1.571e-4, -9.537e-5, 6.171e-5</t>
+          <t>-0.468</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.571e-4</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.537e-5</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.171e-5</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>-0.472, -1.572e-4, -9.561e-5, 6.159e-5</t>
+          <t>-0.472</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.572e-4</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.561e-5</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.159e-5</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>-0.476, -1.574e-4, -9.586e-5, 6.153e-5</t>
+          <t>-0.476</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.574e-4</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.586e-5</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.153e-5</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>-0.480, -1.575e-4, -9.615e-5, 6.138e-5</t>
+          <t>-0.480</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.575e-4</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.615e-5</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.138e-5</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>-0.484, -1.577e-4, -9.637e-5, 6.131e-5</t>
+          <t>-0.484</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.577e-4</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.637e-5</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.131e-5</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>-0.488, -1.578e-4, -9.663e-5, 6.119e-5</t>
+          <t>-0.488</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.578e-4</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.663e-5</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.119e-5</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>-0.492, -1.580e-4, -9.692e-5, 6.107e-5</t>
+          <t>-0.492</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.580e-4</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.692e-5</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.107e-5</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>-0.496, -1.582e-4, -9.727e-5, 6.093e-5</t>
+          <t>-0.496</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.582e-4</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.727e-5</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.093e-5</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>-0.500, -1.584e-4, -9.752e-5, 6.083e-5</t>
+          <t>-0.500</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.584e-4</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -9.752e-5</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.083e-5</t>
         </is>
       </c>
     </row>
